--- a/examen/comp_x.xlsx
+++ b/examen/comp_x.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNPEE\Desktop\digi\digi 16 mai\pachete\D_pachete_fisiere_pt_var_02\examen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B560C632-2E33-4767-B3A5-0CA833FC2743}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="15480" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Document de lucru" sheetId="1" r:id="rId1"/>
@@ -24,74 +18,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Statul</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Populația (mil. loc.)</t>
-  </si>
-  <si>
-    <t>Limba oficială</t>
-  </si>
-  <si>
-    <t>albaneză</t>
-  </si>
-  <si>
-    <t>germană, austriacă</t>
-  </si>
-  <si>
-    <t>belarusă, rusă</t>
-  </si>
-  <si>
-    <t>neerlandeză, franceză, germană</t>
-  </si>
-  <si>
-    <t>bulgară</t>
-  </si>
-  <si>
-    <r>
-      <t>Suprafața (mii de km</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Suprafața</t>
+  </si>
+  <si>
+    <t>Locuitori</t>
+  </si>
+  <si>
+    <t>Capitala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franța </t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Varșovia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Cehia</t>
+  </si>
+  <si>
+    <t>Praga</t>
+  </si>
+  <si>
+    <t>Portugalia</t>
+  </si>
+  <si>
+    <t>Lisabona</t>
+  </si>
+  <si>
+    <t>Belgrad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,34 +74,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -151,58 +104,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Document de lucru" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -244,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,27 +205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,24 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,120 +414,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="25.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>543965</v>
+      </c>
+      <c r="C2" s="10">
+        <v>60656178</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="6">
+        <v>312865</v>
+      </c>
+      <c r="C3" s="10">
+        <v>38635144</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>88361</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="C2" s="4">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>78866</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>84</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>9.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>208</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>10.9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>30.527999999999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>111</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="7">
+        <v>92345</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10566212</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -642,12 +529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
